--- a/ParametricV2/ParametricV2QuickExamples.xlsx
+++ b/ParametricV2/ParametricV2QuickExamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Simulations\SwarmSimulation\Parametric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bj20907\Documents\GitHub\SwarmSimulation\ParametricV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799391D-116A-4D2E-A894-488196BDAF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A4F69-1B30-4AF4-8B09-AC2E23249A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24255" yWindow="660" windowWidth="26955" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27900" yWindow="60" windowWidth="27660" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Flow</t>
   </si>
@@ -102,6 +101,18 @@
   <si>
     <t>AvgTime</t>
   </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>OneThree</t>
+  </si>
+  <si>
+    <t>StartDist</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -162,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4231,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="W99" sqref="W99:W102"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z131" sqref="Z131:Z133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="21"/>
+        <f>STDEV(B108,D108,F108,H108,J108,P106,R106,P108,R108,T108)/SQRT(COUNT(B108,D108,F108,H108,J108,P106,R106,P108,R108,T108))</f>
         <v>1</v>
       </c>
     </row>
@@ -7099,9 +7111,920 @@
         <v>4.3107101760872553</v>
       </c>
     </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1E-3</v>
+      </c>
+      <c r="B115">
+        <v>84</v>
+      </c>
+      <c r="C115">
+        <v>9.9</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+      <c r="E115">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>8.1</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>7.9</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+      <c r="K115">
+        <v>7.8</v>
+      </c>
+      <c r="L115">
+        <v>100</v>
+      </c>
+      <c r="M115">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N115">
+        <v>100</v>
+      </c>
+      <c r="O115">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P115">
+        <v>94</v>
+      </c>
+      <c r="Q115">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="R115">
+        <v>98</v>
+      </c>
+      <c r="S115">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T115">
+        <v>100</v>
+      </c>
+      <c r="U115">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="W115">
+        <f>AVERAGE(B115,D115,F115,H115,J115,L115,N115,P115,R115,T115)</f>
+        <v>97.6</v>
+      </c>
+      <c r="X115">
+        <f>MIN(B115,D115,F115,H115,J115,L115,N115,P115,R115,T115)</f>
+        <v>84</v>
+      </c>
+      <c r="Y115">
+        <f>MAX(B115,D115,F115,H115,J115,L115,P115,N115,R115,T115)</f>
+        <v>100</v>
+      </c>
+      <c r="Z115">
+        <f>STDEV(B115,D115,F115,H115,J115,L115,N115,P115,R115,T115)/SQRT(COUNT(B115,D115,F115,H115,J115,L115,N115,P115,R115,T115))</f>
+        <v>1.6275407487644935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B116">
+        <v>100</v>
+      </c>
+      <c r="C116">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D116">
+        <v>98</v>
+      </c>
+      <c r="E116">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F116">
+        <v>98</v>
+      </c>
+      <c r="G116">
+        <v>9.75</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>86</v>
+      </c>
+      <c r="K116">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L116">
+        <v>100</v>
+      </c>
+      <c r="M116">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="N116">
+        <v>100</v>
+      </c>
+      <c r="O116">
+        <v>7.65</v>
+      </c>
+      <c r="P116">
+        <v>100</v>
+      </c>
+      <c r="Q116">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="R116">
+        <v>100</v>
+      </c>
+      <c r="S116">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T116">
+        <v>94</v>
+      </c>
+      <c r="U116">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="W116">
+        <f>AVERAGE(B116,D116,F116,H116,J116,L116,N116,P116,R116,T116)</f>
+        <v>97.6</v>
+      </c>
+      <c r="X116">
+        <f>MIN(B116,D116,F116,H116,J116,L116,N116,P116,R116,T116)</f>
+        <v>86</v>
+      </c>
+      <c r="Y116">
+        <f>MAX(B116,D116,F116,H116,J116,L116,P116,N116,R116,T116)</f>
+        <v>100</v>
+      </c>
+      <c r="Z116">
+        <f>STDEV(B116,D116,F116,H116,J116,L116,N116,P116,R116,T116)/SQRT(COUNT(B116,D116,F116,H116,J116,L116,N116,P116,R116,T116))</f>
+        <v>1.4236104336041746</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>98</v>
+      </c>
+      <c r="C121">
+        <v>6.5</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+      <c r="E121">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>7.65</v>
+      </c>
+      <c r="H121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>6.45</v>
+      </c>
+      <c r="J121">
+        <v>98</v>
+      </c>
+      <c r="K121">
+        <v>7.1</v>
+      </c>
+      <c r="L121">
+        <v>100</v>
+      </c>
+      <c r="M121">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N121">
+        <v>100</v>
+      </c>
+      <c r="O121">
+        <v>7.6</v>
+      </c>
+      <c r="P121">
+        <v>100</v>
+      </c>
+      <c r="Q121">
+        <v>6.95</v>
+      </c>
+      <c r="R121">
+        <v>100</v>
+      </c>
+      <c r="S121">
+        <v>7.35</v>
+      </c>
+      <c r="T121">
+        <v>92</v>
+      </c>
+      <c r="U121">
+        <v>7.5</v>
+      </c>
+      <c r="W121">
+        <f>AVERAGE(B121,D121,F121,H121,J121,L121,N121,P121,R121,T121)</f>
+        <v>98.8</v>
+      </c>
+      <c r="X121">
+        <f>MIN(B121,D121,F121,H121,J121,L121,N121,P121,R121,T121)</f>
+        <v>92</v>
+      </c>
+      <c r="Y121">
+        <f>MAX(B121,D121,F121,H121,J121,L121,P121,N121,R121,T121)</f>
+        <v>100</v>
+      </c>
+      <c r="Z121">
+        <f>STDEV(B121,D121,F121,H121,J121,L121,N121,P121,R121,T121)/SQRT(COUNT(B121,D121,F121,H121,J121,L121,N121,P121,R121,T121))</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>100</v>
+      </c>
+      <c r="C122">
+        <v>6.8</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>7.5</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>9.35</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>7.3</v>
+      </c>
+      <c r="J122">
+        <v>100</v>
+      </c>
+      <c r="K122">
+        <v>7.9</v>
+      </c>
+      <c r="L122">
+        <v>100</v>
+      </c>
+      <c r="M122">
+        <v>6.55</v>
+      </c>
+      <c r="N122">
+        <v>100</v>
+      </c>
+      <c r="O122">
+        <v>7.1</v>
+      </c>
+      <c r="P122">
+        <v>100</v>
+      </c>
+      <c r="Q122">
+        <v>6.8</v>
+      </c>
+      <c r="R122">
+        <v>100</v>
+      </c>
+      <c r="S122">
+        <v>7.85</v>
+      </c>
+      <c r="T122">
+        <v>100</v>
+      </c>
+      <c r="U122">
+        <v>7.2</v>
+      </c>
+      <c r="W122">
+        <f>AVERAGE(B122,D122,F122,H122,J122,L122,N122,P122,R122,T122)</f>
+        <v>100</v>
+      </c>
+      <c r="X122">
+        <f>MIN(B122,D122,F122,H122,J122,L122,N122,P122,R122,T122)</f>
+        <v>100</v>
+      </c>
+      <c r="Y122">
+        <f>MAX(B122,D122,F122,H122,J122,L122,P122,N122,R122,T122)</f>
+        <v>100</v>
+      </c>
+      <c r="Z122">
+        <f>STDEV(B122,D122,F122,H122,J122,L122,N122,P122,R122,T122)/SQRT(COUNT(B122,D122,F122,H122,J122,L122,N122,P122,R122,T122))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123">
+        <v>96</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>100</v>
+      </c>
+      <c r="E123">
+        <v>7.4</v>
+      </c>
+      <c r="F123">
+        <v>96</v>
+      </c>
+      <c r="G123">
+        <v>11.85</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>7.45</v>
+      </c>
+      <c r="J123">
+        <v>100</v>
+      </c>
+      <c r="K123">
+        <v>8.65</v>
+      </c>
+      <c r="L123">
+        <v>86</v>
+      </c>
+      <c r="M123">
+        <v>12.1</v>
+      </c>
+      <c r="N123">
+        <v>86</v>
+      </c>
+      <c r="O123">
+        <v>11.85</v>
+      </c>
+      <c r="P123">
+        <v>74</v>
+      </c>
+      <c r="Q123">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R123">
+        <v>90</v>
+      </c>
+      <c r="S123">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T123">
+        <v>94</v>
+      </c>
+      <c r="U123">
+        <v>8.9</v>
+      </c>
+      <c r="W123">
+        <f>AVERAGE(B123,D123,F123,H123,J123,L123,N123,P123,R123,T123)</f>
+        <v>92.2</v>
+      </c>
+      <c r="X123">
+        <f>MIN(B123,D123,F123,H123,J123,L123,N123,P123,R123,T123)</f>
+        <v>74</v>
+      </c>
+      <c r="Y123">
+        <f>MAX(B123,D123,F123,H123,J123,L123,P123,N123,R123,T123)</f>
+        <v>100</v>
+      </c>
+      <c r="Z123">
+        <f>STDEV(B123,D123,F123,H123,J123,L123,N123,P123,R123,T123)/SQRT(COUNT(B123,D123,F123,H123,J123,L123,N123,P123,R123,T123))</f>
+        <v>2.6407069760451143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>96</v>
+      </c>
+      <c r="C126">
+        <v>6.3</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+      <c r="E126">
+        <v>6.55</v>
+      </c>
+      <c r="F126">
+        <v>94</v>
+      </c>
+      <c r="G126">
+        <v>6.95</v>
+      </c>
+      <c r="H126">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>8.65</v>
+      </c>
+      <c r="J126">
+        <v>80</v>
+      </c>
+      <c r="K126">
+        <v>8.65</v>
+      </c>
+      <c r="L126">
+        <v>80</v>
+      </c>
+      <c r="M126">
+        <v>11.35</v>
+      </c>
+      <c r="N126">
+        <v>88</v>
+      </c>
+      <c r="O126">
+        <v>6.3</v>
+      </c>
+      <c r="P126">
+        <v>100</v>
+      </c>
+      <c r="Q126">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R126">
+        <v>96</v>
+      </c>
+      <c r="S126">
+        <v>8.15</v>
+      </c>
+      <c r="T126">
+        <v>100</v>
+      </c>
+      <c r="U126">
+        <v>7.4</v>
+      </c>
+      <c r="W126">
+        <f>AVERAGE(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
+        <v>91.4</v>
+      </c>
+      <c r="X126">
+        <f>MIN(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
+        <v>80</v>
+      </c>
+      <c r="Y126">
+        <f>MAX(B126,D126,F126,H126,J126,L126,P126,N126,R126,T126)</f>
+        <v>100</v>
+      </c>
+      <c r="Z126">
+        <f>STDEV(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)/SQRT(COUNT(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126))</f>
+        <v>2.7333333333333334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127">
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>6.8</v>
+      </c>
+      <c r="D127">
+        <v>86</v>
+      </c>
+      <c r="E127">
+        <v>5.4</v>
+      </c>
+      <c r="F127">
+        <v>96</v>
+      </c>
+      <c r="G127" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H127">
+        <v>92</v>
+      </c>
+      <c r="I127">
+        <v>10.75</v>
+      </c>
+      <c r="J127">
+        <v>96</v>
+      </c>
+      <c r="K127">
+        <v>8.75</v>
+      </c>
+      <c r="L127">
+        <v>96</v>
+      </c>
+      <c r="M127">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N127">
+        <v>92</v>
+      </c>
+      <c r="O127">
+        <v>10.45</v>
+      </c>
+      <c r="P127">
+        <v>98</v>
+      </c>
+      <c r="Q127">
+        <v>7.85</v>
+      </c>
+      <c r="R127">
+        <v>96</v>
+      </c>
+      <c r="S127">
+        <v>8.5</v>
+      </c>
+      <c r="T127">
+        <v>96</v>
+      </c>
+      <c r="U127">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="W127">
+        <f>AVERAGE(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
+        <v>94.4</v>
+      </c>
+      <c r="X127">
+        <f>MIN(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
+        <v>86</v>
+      </c>
+      <c r="Y127">
+        <f>MAX(B127,D127,F127,H127,J127,L127,P127,N127,R127,T127)</f>
+        <v>98</v>
+      </c>
+      <c r="Z127">
+        <f>STDEV(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)/SQRT(COUNT(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127))</f>
+        <v>1.1075498483890769</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>86</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>94</v>
+      </c>
+      <c r="E128">
+        <v>8.35</v>
+      </c>
+      <c r="F128">
+        <v>74</v>
+      </c>
+      <c r="G128">
+        <v>12.45</v>
+      </c>
+      <c r="H128">
+        <v>96</v>
+      </c>
+      <c r="I128">
+        <v>5.15</v>
+      </c>
+      <c r="J128">
+        <v>80</v>
+      </c>
+      <c r="K128">
+        <v>9</v>
+      </c>
+      <c r="L128">
+        <v>100</v>
+      </c>
+      <c r="M128">
+        <v>11.2</v>
+      </c>
+      <c r="N128">
+        <v>88</v>
+      </c>
+      <c r="O128">
+        <v>6.25</v>
+      </c>
+      <c r="P128">
+        <v>98</v>
+      </c>
+      <c r="Q128">
+        <v>5.8</v>
+      </c>
+      <c r="R128">
+        <v>76</v>
+      </c>
+      <c r="S128">
+        <v>7.15</v>
+      </c>
+      <c r="T128">
+        <v>98</v>
+      </c>
+      <c r="U128">
+        <v>6.55</v>
+      </c>
+      <c r="W128">
+        <f>AVERAGE(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
+        <v>89</v>
+      </c>
+      <c r="X128">
+        <f>MIN(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
+        <v>74</v>
+      </c>
+      <c r="Y128">
+        <f>MAX(B128,D128,F128,H128,J128,L128,P128,N128,R128,T128)</f>
+        <v>100</v>
+      </c>
+      <c r="Z128">
+        <f>STDEV(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)/SQRT(COUNT(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128))</f>
+        <v>3.0586852658545229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>90</v>
+      </c>
+      <c r="C131">
+        <v>6.45</v>
+      </c>
+      <c r="D131">
+        <v>98</v>
+      </c>
+      <c r="E131">
+        <v>5.8</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>5.6</v>
+      </c>
+      <c r="H131">
+        <v>94</v>
+      </c>
+      <c r="I131">
+        <v>6.45</v>
+      </c>
+      <c r="J131">
+        <v>98</v>
+      </c>
+      <c r="K131">
+        <v>5.9</v>
+      </c>
+      <c r="L131">
+        <v>100</v>
+      </c>
+      <c r="M131">
+        <v>5.35</v>
+      </c>
+      <c r="N131">
+        <v>88</v>
+      </c>
+      <c r="O131">
+        <v>5.45</v>
+      </c>
+      <c r="P131">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>5.7</v>
+      </c>
+      <c r="R131">
+        <v>98</v>
+      </c>
+      <c r="S131">
+        <v>6.3</v>
+      </c>
+      <c r="T131">
+        <v>94</v>
+      </c>
+      <c r="U131">
+        <v>6.05</v>
+      </c>
+      <c r="W131">
+        <f>AVERAGE(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
+        <v>95</v>
+      </c>
+      <c r="X131">
+        <f>MIN(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
+        <v>88</v>
+      </c>
+      <c r="Y131">
+        <f>MAX(B131,D131,F131,H131,J131,L131,P131,N131,R131,T131)</f>
+        <v>100</v>
+      </c>
+      <c r="Z131">
+        <f>STDEV(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)/SQRT(COUNT(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131))</f>
+        <v>1.4063348739819324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132">
+        <v>90</v>
+      </c>
+      <c r="C132">
+        <v>5.55</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+      <c r="E132">
+        <v>5.9</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="G132">
+        <v>6.1</v>
+      </c>
+      <c r="H132">
+        <v>98</v>
+      </c>
+      <c r="I132">
+        <v>5.5</v>
+      </c>
+      <c r="J132">
+        <v>98</v>
+      </c>
+      <c r="K132">
+        <v>5.45</v>
+      </c>
+      <c r="L132">
+        <v>98</v>
+      </c>
+      <c r="M132">
+        <v>5.55</v>
+      </c>
+      <c r="N132">
+        <v>86</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+      <c r="P132">
+        <v>88</v>
+      </c>
+      <c r="Q132">
+        <v>5.15</v>
+      </c>
+      <c r="R132">
+        <v>90</v>
+      </c>
+      <c r="S132">
+        <v>7.6</v>
+      </c>
+      <c r="T132">
+        <v>68</v>
+      </c>
+      <c r="U132">
+        <v>5.4</v>
+      </c>
+      <c r="W132">
+        <f>AVERAGE(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
+        <v>91.6</v>
+      </c>
+      <c r="X132">
+        <f>MIN(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
+        <v>68</v>
+      </c>
+      <c r="Y132">
+        <f>MAX(B132,D132,F132,H132,J132,L132,P132,N132,R132,T132)</f>
+        <v>100</v>
+      </c>
+      <c r="Z132">
+        <f>STDEV(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)/SQRT(COUNT(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132))</f>
+        <v>3.1098410105841494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>94</v>
+      </c>
+      <c r="C133">
+        <v>6.9</v>
+      </c>
+      <c r="D133">
+        <v>78</v>
+      </c>
+      <c r="E133">
+        <v>6.15</v>
+      </c>
+      <c r="F133">
+        <v>68</v>
+      </c>
+      <c r="G133">
+        <v>6.15</v>
+      </c>
+      <c r="H133">
+        <v>94</v>
+      </c>
+      <c r="I133">
+        <v>6.2</v>
+      </c>
+      <c r="J133">
+        <v>88</v>
+      </c>
+      <c r="K133">
+        <v>6.05</v>
+      </c>
+      <c r="L133">
+        <v>82</v>
+      </c>
+      <c r="M133">
+        <v>7.05</v>
+      </c>
+      <c r="N133">
+        <v>88</v>
+      </c>
+      <c r="O133">
+        <v>6.7</v>
+      </c>
+      <c r="P133">
+        <v>86</v>
+      </c>
+      <c r="Q133">
+        <v>5.7</v>
+      </c>
+      <c r="R133">
+        <v>86</v>
+      </c>
+      <c r="S133">
+        <v>6.25</v>
+      </c>
+      <c r="T133">
+        <v>60</v>
+      </c>
+      <c r="U133">
+        <v>6.75</v>
+      </c>
+      <c r="W133">
+        <f>AVERAGE(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
+        <v>82.4</v>
+      </c>
+      <c r="X133">
+        <f>MIN(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
+        <v>60</v>
+      </c>
+      <c r="Y133">
+        <f>MAX(B133,D133,F133,H133,J133,L133,P133,N133,R133,T133)</f>
+        <v>94</v>
+      </c>
+      <c r="Z133">
+        <f>STDEV(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)/SQRT(COUNT(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133))</f>
+        <v>3.4743504588787597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ParametricV2/ParametricV2QuickExamples.xlsx
+++ b/ParametricV2/ParametricV2QuickExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bj20907\Documents\GitHub\SwarmSimulation\ParametricV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A4F69-1B30-4AF4-8B09-AC2E23249A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D412713-C106-49F2-9124-D97E8A6FE7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27900" yWindow="60" windowWidth="27660" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="165" windowWidth="27660" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
   <si>
     <t>Flow</t>
   </si>
@@ -4243,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z131" sqref="Z131:Z133"/>
+      <selection activeCell="Z126" sqref="Z126:Z128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6621,7 +6621,7 @@
         <v>100</v>
       </c>
       <c r="Z107">
-        <f t="shared" ref="Z107:Z108" si="21">STDEV(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107)/SQRT(COUNT(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107))</f>
+        <f t="shared" ref="Z107" si="21">STDEV(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107)/SQRT(COUNT(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107))</f>
         <v>0.25</v>
       </c>
     </row>
@@ -7536,80 +7536,80 @@
         <v>22</v>
       </c>
       <c r="B126">
+        <v>98</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>86</v>
+      </c>
+      <c r="E126">
+        <v>5.4</v>
+      </c>
+      <c r="F126">
         <v>96</v>
       </c>
-      <c r="C126">
-        <v>6.3</v>
-      </c>
-      <c r="D126">
-        <v>100</v>
-      </c>
-      <c r="E126">
-        <v>6.55</v>
-      </c>
-      <c r="F126">
-        <v>94</v>
-      </c>
       <c r="G126">
-        <v>6.95</v>
+        <v>10.1</v>
       </c>
       <c r="H126">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I126">
-        <v>8.65</v>
+        <v>10.75</v>
       </c>
       <c r="J126">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K126">
-        <v>8.65</v>
+        <v>8.75</v>
       </c>
       <c r="L126">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M126">
-        <v>11.35</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N126">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O126">
-        <v>6.3</v>
+        <v>10.45</v>
       </c>
       <c r="P126">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q126">
-        <v>10.199999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="R126">
         <v>96</v>
       </c>
       <c r="S126">
-        <v>8.15</v>
+        <v>8.5</v>
       </c>
       <c r="T126">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="U126">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="W126">
         <f>AVERAGE(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
-        <v>91.4</v>
+        <v>94.4</v>
       </c>
       <c r="X126">
         <f>MIN(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Y126">
         <f>MAX(B126,D126,F126,H126,J126,L126,P126,N126,R126,T126)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z126">
         <f>STDEV(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)/SQRT(COUNT(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126))</f>
-        <v>2.7333333333333334</v>
+        <v>1.1469767022723505</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
@@ -7617,80 +7617,80 @@
         <v>23</v>
       </c>
       <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127">
+        <v>6.4</v>
+      </c>
+      <c r="D127">
         <v>96</v>
       </c>
-      <c r="C127">
-        <v>6.8</v>
-      </c>
-      <c r="D127">
-        <v>86</v>
-      </c>
       <c r="E127">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="F127">
         <v>96</v>
       </c>
       <c r="G127" s="7">
-        <v>10.1</v>
+        <v>5.3</v>
       </c>
       <c r="H127">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I127">
-        <v>10.75</v>
+        <v>5.3</v>
       </c>
       <c r="J127">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K127">
-        <v>8.75</v>
+        <v>5.45</v>
       </c>
       <c r="L127">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M127">
-        <v>9.1999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="N127">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O127">
-        <v>10.45</v>
+        <v>6.45</v>
       </c>
       <c r="P127">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q127">
-        <v>7.85</v>
+        <v>5.2</v>
       </c>
       <c r="R127">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S127">
-        <v>8.5</v>
+        <v>6.35</v>
       </c>
       <c r="T127">
         <v>96</v>
       </c>
       <c r="U127">
-        <v>10.050000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="W127">
         <f>AVERAGE(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
-        <v>94.4</v>
+        <v>98.8</v>
       </c>
       <c r="X127">
         <f>MIN(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Y127">
         <f>MAX(B127,D127,F127,H127,J127,L127,P127,N127,R127,T127)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z127">
         <f>STDEV(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)/SQRT(COUNT(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127))</f>
-        <v>1.1075498483890769</v>
+        <v>0.61101009266077866</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
@@ -7698,72 +7698,72 @@
         <v>24</v>
       </c>
       <c r="B128">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="D128">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E128">
-        <v>8.35</v>
+        <v>6.5</v>
       </c>
       <c r="F128">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G128">
-        <v>12.45</v>
+        <v>6.15</v>
       </c>
       <c r="H128">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I128">
-        <v>5.15</v>
+        <v>6.4</v>
       </c>
       <c r="J128">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K128">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="L128">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M128">
-        <v>11.2</v>
+        <v>6.75</v>
       </c>
       <c r="N128">
         <v>88</v>
       </c>
       <c r="O128">
-        <v>6.25</v>
+        <v>6.65</v>
       </c>
       <c r="P128">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Q128">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="R128">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="S128">
         <v>7.15</v>
       </c>
       <c r="T128">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U128">
-        <v>6.55</v>
+        <v>6.75</v>
       </c>
       <c r="W128">
         <f>AVERAGE(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
-        <v>89</v>
+        <v>92.6</v>
       </c>
       <c r="X128">
         <f>MIN(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y128">
         <f>MAX(B128,D128,F128,H128,J128,L128,P128,N128,R128,T128)</f>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="Z128">
         <f>STDEV(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)/SQRT(COUNT(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128))</f>
-        <v>3.0586852658545229</v>
+        <v>2.4413111231467406</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
@@ -7784,72 +7784,72 @@
         <v>22</v>
       </c>
       <c r="B131">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C131">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="D131">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E131">
-        <v>5.8</v>
+        <v>6.55</v>
       </c>
       <c r="F131">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G131">
-        <v>5.6</v>
+        <v>6.95</v>
       </c>
       <c r="H131">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I131">
-        <v>6.45</v>
+        <v>8.65</v>
       </c>
       <c r="J131">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="K131">
-        <v>5.9</v>
+        <v>8.65</v>
       </c>
       <c r="L131">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M131">
-        <v>5.35</v>
+        <v>11.35</v>
       </c>
       <c r="N131">
         <v>88</v>
       </c>
       <c r="O131">
-        <v>5.45</v>
+        <v>6.3</v>
       </c>
       <c r="P131">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q131">
-        <v>5.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R131">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S131">
-        <v>6.3</v>
+        <v>8.15</v>
       </c>
       <c r="T131">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="U131">
-        <v>6.05</v>
+        <v>7.4</v>
       </c>
       <c r="W131">
         <f>AVERAGE(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
-        <v>95</v>
+        <v>91.4</v>
       </c>
       <c r="X131">
         <f>MIN(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Y131">
         <f>MAX(B131,D131,F131,H131,J131,L131,P131,N131,R131,T131)</f>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="Z131">
         <f>STDEV(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)/SQRT(COUNT(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131))</f>
-        <v>1.4063348739819324</v>
+        <v>2.7333333333333334</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
@@ -7865,80 +7865,80 @@
         <v>23</v>
       </c>
       <c r="B132">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C132">
-        <v>5.55</v>
+        <v>6.8</v>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E132">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="F132">
-        <v>100</v>
-      </c>
-      <c r="G132">
-        <v>6.1</v>
+        <v>96</v>
+      </c>
+      <c r="G132" s="7">
+        <v>10.1</v>
       </c>
       <c r="H132">
+        <v>92</v>
+      </c>
+      <c r="I132">
+        <v>10.75</v>
+      </c>
+      <c r="J132">
+        <v>96</v>
+      </c>
+      <c r="K132">
+        <v>8.75</v>
+      </c>
+      <c r="L132">
+        <v>96</v>
+      </c>
+      <c r="M132">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N132">
+        <v>92</v>
+      </c>
+      <c r="O132">
+        <v>10.45</v>
+      </c>
+      <c r="P132">
         <v>98</v>
       </c>
-      <c r="I132">
-        <v>5.5</v>
-      </c>
-      <c r="J132">
-        <v>98</v>
-      </c>
-      <c r="K132">
-        <v>5.45</v>
-      </c>
-      <c r="L132">
-        <v>98</v>
-      </c>
-      <c r="M132">
-        <v>5.55</v>
-      </c>
-      <c r="N132">
-        <v>86</v>
-      </c>
-      <c r="O132">
-        <v>6</v>
-      </c>
-      <c r="P132">
-        <v>88</v>
-      </c>
       <c r="Q132">
-        <v>5.15</v>
+        <v>7.85</v>
       </c>
       <c r="R132">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="S132">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="T132">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="U132">
-        <v>5.4</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="W132">
         <f>AVERAGE(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
-        <v>91.6</v>
+        <v>94.4</v>
       </c>
       <c r="X132">
         <f>MIN(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Y132">
         <f>MAX(B132,D132,F132,H132,J132,L132,P132,N132,R132,T132)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z132">
         <f>STDEV(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)/SQRT(COUNT(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132))</f>
-        <v>3.1098410105841494</v>
+        <v>1.1075498483890769</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
@@ -7946,79 +7946,327 @@
         <v>24</v>
       </c>
       <c r="B133">
+        <v>86</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="D133">
         <v>94</v>
       </c>
-      <c r="C133">
-        <v>6.9</v>
-      </c>
-      <c r="D133">
-        <v>78</v>
-      </c>
       <c r="E133">
-        <v>6.15</v>
+        <v>8.35</v>
       </c>
       <c r="F133">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G133">
-        <v>6.15</v>
+        <v>12.45</v>
       </c>
       <c r="H133">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I133">
-        <v>6.2</v>
+        <v>5.15</v>
       </c>
       <c r="J133">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K133">
-        <v>6.05</v>
+        <v>9</v>
       </c>
       <c r="L133">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M133">
-        <v>7.05</v>
+        <v>11.2</v>
       </c>
       <c r="N133">
         <v>88</v>
       </c>
       <c r="O133">
-        <v>6.7</v>
+        <v>6.25</v>
       </c>
       <c r="P133">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="Q133">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="R133">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="S133">
-        <v>6.25</v>
+        <v>7.15</v>
       </c>
       <c r="T133">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="U133">
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="W133">
         <f>AVERAGE(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
-        <v>82.4</v>
+        <v>89</v>
       </c>
       <c r="X133">
         <f>MIN(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Y133">
         <f>MAX(B133,D133,F133,H133,J133,L133,P133,N133,R133,T133)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Z133">
         <f>STDEV(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)/SQRT(COUNT(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133))</f>
+        <v>3.0586852658545229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>90</v>
+      </c>
+      <c r="C136">
+        <v>6.45</v>
+      </c>
+      <c r="D136">
+        <v>98</v>
+      </c>
+      <c r="E136">
+        <v>5.8</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="G136">
+        <v>5.6</v>
+      </c>
+      <c r="H136">
+        <v>94</v>
+      </c>
+      <c r="I136">
+        <v>6.45</v>
+      </c>
+      <c r="J136">
+        <v>98</v>
+      </c>
+      <c r="K136">
+        <v>5.9</v>
+      </c>
+      <c r="L136">
+        <v>100</v>
+      </c>
+      <c r="M136">
+        <v>5.35</v>
+      </c>
+      <c r="N136">
+        <v>88</v>
+      </c>
+      <c r="O136">
+        <v>5.45</v>
+      </c>
+      <c r="P136">
+        <v>90</v>
+      </c>
+      <c r="Q136">
+        <v>5.7</v>
+      </c>
+      <c r="R136">
+        <v>98</v>
+      </c>
+      <c r="S136">
+        <v>6.3</v>
+      </c>
+      <c r="T136">
+        <v>94</v>
+      </c>
+      <c r="U136">
+        <v>6.05</v>
+      </c>
+      <c r="W136">
+        <f>AVERAGE(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)</f>
+        <v>95</v>
+      </c>
+      <c r="X136">
+        <f>MIN(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)</f>
+        <v>88</v>
+      </c>
+      <c r="Y136">
+        <f>MAX(B136,D136,F136,H136,J136,L136,P136,N136,R136,T136)</f>
+        <v>100</v>
+      </c>
+      <c r="Z136">
+        <f>STDEV(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)/SQRT(COUNT(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136))</f>
+        <v>1.4063348739819324</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137">
+        <v>90</v>
+      </c>
+      <c r="C137">
+        <v>5.55</v>
+      </c>
+      <c r="D137">
+        <v>100</v>
+      </c>
+      <c r="E137">
+        <v>5.9</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>6.1</v>
+      </c>
+      <c r="H137">
+        <v>98</v>
+      </c>
+      <c r="I137">
+        <v>5.5</v>
+      </c>
+      <c r="J137">
+        <v>98</v>
+      </c>
+      <c r="K137">
+        <v>5.45</v>
+      </c>
+      <c r="L137">
+        <v>98</v>
+      </c>
+      <c r="M137">
+        <v>5.55</v>
+      </c>
+      <c r="N137">
+        <v>86</v>
+      </c>
+      <c r="O137">
+        <v>6</v>
+      </c>
+      <c r="P137">
+        <v>88</v>
+      </c>
+      <c r="Q137">
+        <v>5.15</v>
+      </c>
+      <c r="R137">
+        <v>90</v>
+      </c>
+      <c r="S137">
+        <v>7.6</v>
+      </c>
+      <c r="T137">
+        <v>68</v>
+      </c>
+      <c r="U137">
+        <v>5.4</v>
+      </c>
+      <c r="W137">
+        <f>AVERAGE(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)</f>
+        <v>91.6</v>
+      </c>
+      <c r="X137">
+        <f>MIN(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)</f>
+        <v>68</v>
+      </c>
+      <c r="Y137">
+        <f>MAX(B137,D137,F137,H137,J137,L137,P137,N137,R137,T137)</f>
+        <v>100</v>
+      </c>
+      <c r="Z137">
+        <f>STDEV(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)/SQRT(COUNT(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137))</f>
+        <v>3.1098410105841494</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138">
+        <v>94</v>
+      </c>
+      <c r="C138">
+        <v>6.9</v>
+      </c>
+      <c r="D138">
+        <v>78</v>
+      </c>
+      <c r="E138">
+        <v>6.15</v>
+      </c>
+      <c r="F138">
+        <v>68</v>
+      </c>
+      <c r="G138">
+        <v>6.15</v>
+      </c>
+      <c r="H138">
+        <v>94</v>
+      </c>
+      <c r="I138">
+        <v>6.2</v>
+      </c>
+      <c r="J138">
+        <v>88</v>
+      </c>
+      <c r="K138">
+        <v>6.05</v>
+      </c>
+      <c r="L138">
+        <v>82</v>
+      </c>
+      <c r="M138">
+        <v>7.05</v>
+      </c>
+      <c r="N138">
+        <v>88</v>
+      </c>
+      <c r="O138">
+        <v>6.7</v>
+      </c>
+      <c r="P138">
+        <v>86</v>
+      </c>
+      <c r="Q138">
+        <v>5.7</v>
+      </c>
+      <c r="R138">
+        <v>86</v>
+      </c>
+      <c r="S138">
+        <v>6.25</v>
+      </c>
+      <c r="T138">
+        <v>60</v>
+      </c>
+      <c r="U138">
+        <v>6.75</v>
+      </c>
+      <c r="W138">
+        <f>AVERAGE(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)</f>
+        <v>82.4</v>
+      </c>
+      <c r="X138">
+        <f>MIN(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)</f>
+        <v>60</v>
+      </c>
+      <c r="Y138">
+        <f>MAX(B138,D138,F138,H138,J138,L138,P138,N138,R138,T138)</f>
+        <v>94</v>
+      </c>
+      <c r="Z138">
+        <f>STDEV(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)/SQRT(COUNT(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138))</f>
         <v>3.4743504588787597</v>
       </c>
     </row>

--- a/ParametricV2/ParametricV2QuickExamples.xlsx
+++ b/ParametricV2/ParametricV2QuickExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bj20907\Documents\GitHub\SwarmSimulation\ParametricV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D412713-C106-49F2-9124-D97E8A6FE7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF738BF3-7CA9-4C03-8ED2-52F82E94795F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="165" windowWidth="27660" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27945" yWindow="0" windowWidth="27660" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>Flow</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>StartDist</t>
+  </si>
+  <si>
+    <t>TwoFour</t>
   </si>
 </sst>
 </file>
@@ -4243,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z126" sqref="Z126:Z128"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T155" sqref="T155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7280,7 +7283,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
@@ -7526,244 +7529,244 @@
         <v>2.6407069760451143</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1.5</v>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <v>7.45</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
+      </c>
+      <c r="E124">
+        <v>7.8</v>
+      </c>
+      <c r="F124">
+        <v>94</v>
+      </c>
+      <c r="G124">
+        <v>7.75</v>
+      </c>
+      <c r="H124">
+        <v>90</v>
+      </c>
+      <c r="I124">
+        <v>7.15</v>
+      </c>
+      <c r="J124">
+        <v>70</v>
+      </c>
+      <c r="K124">
+        <v>7.8</v>
+      </c>
+      <c r="L124">
+        <v>100</v>
+      </c>
+      <c r="M124">
+        <v>8.15</v>
+      </c>
+      <c r="N124">
+        <v>98</v>
+      </c>
+      <c r="O124">
+        <v>7.4</v>
+      </c>
+      <c r="P124">
+        <v>100</v>
+      </c>
+      <c r="Q124">
+        <v>7.6</v>
+      </c>
+      <c r="R124">
+        <v>98</v>
+      </c>
+      <c r="S124">
+        <v>6.8</v>
+      </c>
+      <c r="T124">
+        <v>78</v>
+      </c>
+      <c r="U124">
+        <v>6.7</v>
+      </c>
+      <c r="W124">
+        <f>AVERAGE(B124,D124,F124,H124,J124,L124,N124,P124,R124,T124)</f>
+        <v>92</v>
+      </c>
+      <c r="X124">
+        <f>MIN(B124,D124,F124,H124,J124,L124,N124,P124,R124,T124)</f>
+        <v>70</v>
+      </c>
+      <c r="Y124">
+        <f>MAX(B124,D124,F124,H124,J124,L124,P124,N124,R124,T124)</f>
+        <v>100</v>
+      </c>
+      <c r="Z124">
+        <f>STDEV(B124,D124,F124,H124,J124,L124,N124,P124,R124,T124)/SQRT(COUNT(B124,D124,F124,H124,J124,L124,N124,P124,R124,T124))</f>
+        <v>3.2523495780401244</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126">
-        <v>98</v>
-      </c>
-      <c r="C126">
-        <v>5.7</v>
-      </c>
-      <c r="D126">
-        <v>86</v>
-      </c>
-      <c r="E126">
-        <v>5.4</v>
-      </c>
-      <c r="F126">
-        <v>96</v>
-      </c>
-      <c r="G126">
-        <v>10.1</v>
-      </c>
-      <c r="H126">
-        <v>92</v>
-      </c>
-      <c r="I126">
-        <v>10.75</v>
-      </c>
-      <c r="J126">
-        <v>96</v>
-      </c>
-      <c r="K126">
-        <v>8.75</v>
-      </c>
-      <c r="L126">
-        <v>96</v>
-      </c>
-      <c r="M126">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N126">
-        <v>92</v>
-      </c>
-      <c r="O126">
-        <v>10.45</v>
-      </c>
-      <c r="P126">
-        <v>98</v>
-      </c>
-      <c r="Q126">
-        <v>7.85</v>
-      </c>
-      <c r="R126">
-        <v>96</v>
-      </c>
-      <c r="S126">
-        <v>8.5</v>
-      </c>
-      <c r="T126">
-        <v>94</v>
-      </c>
-      <c r="U126">
-        <v>9.6</v>
-      </c>
-      <c r="W126">
-        <f>AVERAGE(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
-        <v>94.4</v>
-      </c>
-      <c r="X126">
-        <f>MIN(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)</f>
-        <v>86</v>
-      </c>
-      <c r="Y126">
-        <f>MAX(B126,D126,F126,H126,J126,L126,P126,N126,R126,T126)</f>
-        <v>98</v>
-      </c>
-      <c r="Z126">
-        <f>STDEV(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126)/SQRT(COUNT(B126,D126,F126,H126,J126,L126,N126,P126,R126,T126))</f>
-        <v>1.1469767022723505</v>
+      <c r="A126">
+        <v>0.01</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C127">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="D127">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E127">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="F127">
         <v>96</v>
       </c>
-      <c r="G127" s="7">
-        <v>5.3</v>
+      <c r="G127">
+        <v>10.1</v>
       </c>
       <c r="H127">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I127">
-        <v>5.3</v>
+        <v>10.75</v>
       </c>
       <c r="J127">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K127">
-        <v>5.45</v>
+        <v>8.75</v>
       </c>
       <c r="L127">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M127">
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N127">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O127">
-        <v>6.45</v>
+        <v>10.45</v>
       </c>
       <c r="P127">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q127">
-        <v>5.2</v>
+        <v>7.85</v>
       </c>
       <c r="R127">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S127">
-        <v>6.35</v>
+        <v>8.5</v>
       </c>
       <c r="T127">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U127">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="W127">
         <f>AVERAGE(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
-        <v>98.8</v>
+        <v>94.4</v>
       </c>
       <c r="X127">
         <f>MIN(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Y127">
         <f>MAX(B127,D127,F127,H127,J127,L127,P127,N127,R127,T127)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z127">
         <f>STDEV(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127)/SQRT(COUNT(B127,D127,F127,H127,J127,L127,N127,P127,R127,T127))</f>
-        <v>0.61101009266077866</v>
+        <v>1.1469767022723505</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128">
+        <v>6.4</v>
+      </c>
+      <c r="D128">
         <v>96</v>
       </c>
-      <c r="C128">
-        <v>6.5</v>
-      </c>
-      <c r="D128">
-        <v>98</v>
-      </c>
       <c r="E128">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="F128">
         <v>96</v>
       </c>
-      <c r="G128">
-        <v>6.15</v>
+      <c r="G128" s="7">
+        <v>5.3</v>
       </c>
       <c r="H128">
         <v>100</v>
       </c>
       <c r="I128">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="J128">
         <v>100</v>
       </c>
       <c r="K128">
-        <v>6.7</v>
+        <v>5.45</v>
       </c>
       <c r="L128">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M128">
-        <v>6.75</v>
+        <v>6.3</v>
       </c>
       <c r="N128">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="O128">
-        <v>6.65</v>
+        <v>6.45</v>
       </c>
       <c r="P128">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="Q128">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="R128">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S128">
-        <v>7.15</v>
+        <v>6.35</v>
       </c>
       <c r="T128">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U128">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="W128">
         <f>AVERAGE(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
-        <v>92.6</v>
+        <v>98.8</v>
       </c>
       <c r="X128">
         <f>MIN(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)</f>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="Y128">
         <f>MAX(B128,D128,F128,H128,J128,L128,P128,N128,R128,T128)</f>
@@ -7771,247 +7774,247 @@
       </c>
       <c r="Z128">
         <f>STDEV(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128)/SQRT(COUNT(B128,D128,F128,H128,J128,L128,N128,P128,R128,T128))</f>
+        <v>0.61101009266077866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>96</v>
+      </c>
+      <c r="C129">
+        <v>6.5</v>
+      </c>
+      <c r="D129">
+        <v>98</v>
+      </c>
+      <c r="E129">
+        <v>6.5</v>
+      </c>
+      <c r="F129">
+        <v>96</v>
+      </c>
+      <c r="G129">
+        <v>6.15</v>
+      </c>
+      <c r="H129">
+        <v>100</v>
+      </c>
+      <c r="I129">
+        <v>6.4</v>
+      </c>
+      <c r="J129">
+        <v>100</v>
+      </c>
+      <c r="K129">
+        <v>6.7</v>
+      </c>
+      <c r="L129">
+        <v>84</v>
+      </c>
+      <c r="M129">
+        <v>6.75</v>
+      </c>
+      <c r="N129">
+        <v>88</v>
+      </c>
+      <c r="O129">
+        <v>6.65</v>
+      </c>
+      <c r="P129">
+        <v>76</v>
+      </c>
+      <c r="Q129">
+        <v>7.6</v>
+      </c>
+      <c r="R129">
+        <v>94</v>
+      </c>
+      <c r="S129">
+        <v>7.15</v>
+      </c>
+      <c r="T129">
+        <v>94</v>
+      </c>
+      <c r="U129">
+        <v>6.75</v>
+      </c>
+      <c r="W129">
+        <f>AVERAGE(B129,D129,F129,H129,J129,L129,N129,P129,R129,T129)</f>
+        <v>92.6</v>
+      </c>
+      <c r="X129">
+        <f>MIN(B129,D129,F129,H129,J129,L129,N129,P129,R129,T129)</f>
+        <v>76</v>
+      </c>
+      <c r="Y129">
+        <f>MAX(B129,D129,F129,H129,J129,L129,P129,N129,R129,T129)</f>
+        <v>100</v>
+      </c>
+      <c r="Z129">
+        <f>STDEV(B129,D129,F129,H129,J129,L129,N129,P129,R129,T129)/SQRT(COUNT(B129,D129,F129,H129,J129,L129,N129,P129,R129,T129))</f>
         <v>2.4413111231467406</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130">
         <v>96</v>
       </c>
-      <c r="C131">
-        <v>6.3</v>
-      </c>
-      <c r="D131">
-        <v>100</v>
-      </c>
-      <c r="E131">
-        <v>6.55</v>
-      </c>
-      <c r="F131">
-        <v>94</v>
-      </c>
-      <c r="G131">
-        <v>6.95</v>
-      </c>
-      <c r="H131">
-        <v>80</v>
-      </c>
-      <c r="I131">
-        <v>8.65</v>
-      </c>
-      <c r="J131">
-        <v>80</v>
-      </c>
-      <c r="K131">
-        <v>8.65</v>
-      </c>
-      <c r="L131">
-        <v>80</v>
-      </c>
-      <c r="M131">
-        <v>11.35</v>
-      </c>
-      <c r="N131">
+      <c r="C130">
+        <v>6.85</v>
+      </c>
+      <c r="D130">
+        <v>90</v>
+      </c>
+      <c r="E130">
+        <v>5.4</v>
+      </c>
+      <c r="F130">
         <v>88</v>
       </c>
-      <c r="O131">
-        <v>6.3</v>
-      </c>
-      <c r="P131">
-        <v>100</v>
-      </c>
-      <c r="Q131">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="R131">
+      <c r="G130">
+        <v>6.7</v>
+      </c>
+      <c r="H130">
         <v>96</v>
       </c>
-      <c r="S131">
+      <c r="I130">
+        <v>5.85</v>
+      </c>
+      <c r="J130">
+        <v>98</v>
+      </c>
+      <c r="K130">
+        <v>6.4</v>
+      </c>
+      <c r="L130">
+        <v>98</v>
+      </c>
+      <c r="M130">
         <v>8.15</v>
       </c>
-      <c r="T131">
-        <v>100</v>
-      </c>
-      <c r="U131">
-        <v>7.4</v>
-      </c>
-      <c r="W131">
-        <f>AVERAGE(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
-        <v>91.4</v>
-      </c>
-      <c r="X131">
-        <f>MIN(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)</f>
-        <v>80</v>
-      </c>
-      <c r="Y131">
-        <f>MAX(B131,D131,F131,H131,J131,L131,P131,N131,R131,T131)</f>
-        <v>100</v>
-      </c>
-      <c r="Z131">
-        <f>STDEV(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131)/SQRT(COUNT(B131,D131,F131,H131,J131,L131,N131,P131,R131,T131))</f>
-        <v>2.7333333333333334</v>
+      <c r="N130">
+        <v>92</v>
+      </c>
+      <c r="O130">
+        <v>6.85</v>
+      </c>
+      <c r="P130">
+        <v>84</v>
+      </c>
+      <c r="Q130">
+        <v>6.85</v>
+      </c>
+      <c r="R130">
+        <v>96</v>
+      </c>
+      <c r="S130">
+        <v>7.6</v>
+      </c>
+      <c r="T130">
+        <v>52</v>
+      </c>
+      <c r="U130">
+        <v>7.65</v>
+      </c>
+      <c r="W130">
+        <f>AVERAGE(B130,D130,F130,H130,J130,L130,N130,P130,R130,T130)</f>
+        <v>89</v>
+      </c>
+      <c r="X130">
+        <f>MIN(B130,D130,F130,H130,J130,L130,N130,P130,R130,T130)</f>
+        <v>52</v>
+      </c>
+      <c r="Y130">
+        <f>MAX(B130,D130,F130,H130,J130,L130,P130,N130,R130,T130)</f>
+        <v>98</v>
+      </c>
+      <c r="Z130">
+        <f>STDEV(B130,D130,F130,H130,J130,L130,N130,P130,R130,T130)/SQRT(COUNT(B130,D130,F130,H130,J130,L130,N130,P130,R130,T130))</f>
+        <v>4.3639940930808381</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132">
-        <v>96</v>
-      </c>
-      <c r="C132">
-        <v>6.8</v>
-      </c>
-      <c r="D132">
-        <v>86</v>
-      </c>
-      <c r="E132">
-        <v>5.4</v>
-      </c>
-      <c r="F132">
-        <v>96</v>
-      </c>
-      <c r="G132" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="H132">
-        <v>92</v>
-      </c>
-      <c r="I132">
-        <v>10.75</v>
-      </c>
-      <c r="J132">
-        <v>96</v>
-      </c>
-      <c r="K132">
-        <v>8.75</v>
-      </c>
-      <c r="L132">
-        <v>96</v>
-      </c>
-      <c r="M132">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N132">
-        <v>92</v>
-      </c>
-      <c r="O132">
-        <v>10.45</v>
-      </c>
-      <c r="P132">
-        <v>98</v>
-      </c>
-      <c r="Q132">
-        <v>7.85</v>
-      </c>
-      <c r="R132">
-        <v>96</v>
-      </c>
-      <c r="S132">
-        <v>8.5</v>
-      </c>
-      <c r="T132">
-        <v>96</v>
-      </c>
-      <c r="U132">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="W132">
-        <f>AVERAGE(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
-        <v>94.4</v>
-      </c>
-      <c r="X132">
-        <f>MIN(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)</f>
-        <v>86</v>
-      </c>
-      <c r="Y132">
-        <f>MAX(B132,D132,F132,H132,J132,L132,P132,N132,R132,T132)</f>
-        <v>98</v>
-      </c>
-      <c r="Z132">
-        <f>STDEV(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132)/SQRT(COUNT(B132,D132,F132,H132,J132,L132,N132,P132,R132,T132))</f>
-        <v>1.1075498483890769</v>
+      <c r="A132">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B133">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="E133">
+        <v>6.55</v>
+      </c>
+      <c r="F133">
         <v>94</v>
       </c>
-      <c r="E133">
-        <v>8.35</v>
-      </c>
-      <c r="F133">
-        <v>74</v>
-      </c>
       <c r="G133">
-        <v>12.45</v>
+        <v>6.95</v>
       </c>
       <c r="H133">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I133">
-        <v>5.15</v>
+        <v>8.65</v>
       </c>
       <c r="J133">
         <v>80</v>
       </c>
       <c r="K133">
-        <v>9</v>
+        <v>8.65</v>
       </c>
       <c r="L133">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M133">
-        <v>11.2</v>
+        <v>11.35</v>
       </c>
       <c r="N133">
         <v>88</v>
       </c>
       <c r="O133">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="P133">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q133">
-        <v>5.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R133">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="S133">
-        <v>7.15</v>
+        <v>8.15</v>
       </c>
       <c r="T133">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U133">
-        <v>6.55</v>
+        <v>7.4</v>
       </c>
       <c r="W133">
         <f>AVERAGE(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
-        <v>89</v>
+        <v>91.4</v>
       </c>
       <c r="X133">
         <f>MIN(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Y133">
         <f>MAX(B133,D133,F133,H133,J133,L133,P133,N133,R133,T133)</f>
@@ -8019,255 +8022,1237 @@
       </c>
       <c r="Z133">
         <f>STDEV(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133)/SQRT(COUNT(B133,D133,F133,H133,J133,L133,N133,P133,R133,T133))</f>
+        <v>2.7333333333333334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>6.8</v>
+      </c>
+      <c r="D134">
+        <v>86</v>
+      </c>
+      <c r="E134">
+        <v>5.4</v>
+      </c>
+      <c r="F134">
+        <v>96</v>
+      </c>
+      <c r="G134" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H134">
+        <v>92</v>
+      </c>
+      <c r="I134">
+        <v>10.75</v>
+      </c>
+      <c r="J134">
+        <v>96</v>
+      </c>
+      <c r="K134">
+        <v>8.75</v>
+      </c>
+      <c r="L134">
+        <v>96</v>
+      </c>
+      <c r="M134">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N134">
+        <v>92</v>
+      </c>
+      <c r="O134">
+        <v>10.45</v>
+      </c>
+      <c r="P134">
+        <v>98</v>
+      </c>
+      <c r="Q134">
+        <v>7.85</v>
+      </c>
+      <c r="R134">
+        <v>96</v>
+      </c>
+      <c r="S134">
+        <v>8.5</v>
+      </c>
+      <c r="T134">
+        <v>96</v>
+      </c>
+      <c r="U134">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="W134">
+        <f>AVERAGE(B134,D134,F134,H134,J134,L134,N134,P134,R134,T134)</f>
+        <v>94.4</v>
+      </c>
+      <c r="X134">
+        <f>MIN(B134,D134,F134,H134,J134,L134,N134,P134,R134,T134)</f>
+        <v>86</v>
+      </c>
+      <c r="Y134">
+        <f>MAX(B134,D134,F134,H134,J134,L134,P134,N134,R134,T134)</f>
+        <v>98</v>
+      </c>
+      <c r="Z134">
+        <f>STDEV(B134,D134,F134,H134,J134,L134,N134,P134,R134,T134)/SQRT(COUNT(B134,D134,F134,H134,J134,L134,N134,P134,R134,T134))</f>
+        <v>1.1075498483890769</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135">
+        <v>86</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>94</v>
+      </c>
+      <c r="E135">
+        <v>8.35</v>
+      </c>
+      <c r="F135">
+        <v>74</v>
+      </c>
+      <c r="G135">
+        <v>12.45</v>
+      </c>
+      <c r="H135">
+        <v>96</v>
+      </c>
+      <c r="I135">
+        <v>5.15</v>
+      </c>
+      <c r="J135">
+        <v>80</v>
+      </c>
+      <c r="K135">
+        <v>9</v>
+      </c>
+      <c r="L135">
+        <v>100</v>
+      </c>
+      <c r="M135">
+        <v>11.2</v>
+      </c>
+      <c r="N135">
+        <v>88</v>
+      </c>
+      <c r="O135">
+        <v>6.25</v>
+      </c>
+      <c r="P135">
+        <v>98</v>
+      </c>
+      <c r="Q135">
+        <v>5.8</v>
+      </c>
+      <c r="R135">
+        <v>76</v>
+      </c>
+      <c r="S135">
+        <v>7.15</v>
+      </c>
+      <c r="T135">
+        <v>98</v>
+      </c>
+      <c r="U135">
+        <v>6.55</v>
+      </c>
+      <c r="W135">
+        <f>AVERAGE(B135,D135,F135,H135,J135,L135,N135,P135,R135,T135)</f>
+        <v>89</v>
+      </c>
+      <c r="X135">
+        <f>MIN(B135,D135,F135,H135,J135,L135,N135,P135,R135,T135)</f>
+        <v>74</v>
+      </c>
+      <c r="Y135">
+        <f>MAX(B135,D135,F135,H135,J135,L135,P135,N135,R135,T135)</f>
+        <v>100</v>
+      </c>
+      <c r="Z135">
+        <f>STDEV(B135,D135,F135,H135,J135,L135,N135,P135,R135,T135)/SQRT(COUNT(B135,D135,F135,H135,J135,L135,N135,P135,R135,T135))</f>
         <v>3.0586852658545229</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B136">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C136">
-        <v>6.45</v>
+        <v>8.1</v>
       </c>
       <c r="D136">
+        <v>80</v>
+      </c>
+      <c r="E136">
+        <v>7.5</v>
+      </c>
+      <c r="F136">
         <v>98</v>
       </c>
-      <c r="E136">
-        <v>5.8</v>
-      </c>
-      <c r="F136">
-        <v>100</v>
-      </c>
       <c r="G136">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H136">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I136">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="J136">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K136">
-        <v>5.9</v>
+        <v>6.95</v>
       </c>
       <c r="L136">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M136">
-        <v>5.35</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="N136">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O136">
-        <v>5.45</v>
+        <v>6.25</v>
       </c>
       <c r="P136">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q136">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="R136">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S136">
-        <v>6.3</v>
+        <v>6.65</v>
       </c>
       <c r="T136">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U136">
-        <v>6.05</v>
+        <v>5.15</v>
       </c>
       <c r="W136">
         <f>AVERAGE(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="X136">
         <f>MIN(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)</f>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Y136">
         <f>MAX(B136,D136,F136,H136,J136,L136,P136,N136,R136,T136)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z136">
         <f>STDEV(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136)/SQRT(COUNT(B136,D136,F136,H136,J136,L136,N136,P136,R136,T136))</f>
+        <v>3.0147784145586702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>90</v>
+      </c>
+      <c r="C139">
+        <v>6.45</v>
+      </c>
+      <c r="D139">
+        <v>98</v>
+      </c>
+      <c r="E139">
+        <v>5.8</v>
+      </c>
+      <c r="F139">
+        <v>100</v>
+      </c>
+      <c r="G139">
+        <v>5.6</v>
+      </c>
+      <c r="H139">
+        <v>94</v>
+      </c>
+      <c r="I139">
+        <v>6.45</v>
+      </c>
+      <c r="J139">
+        <v>98</v>
+      </c>
+      <c r="K139">
+        <v>5.9</v>
+      </c>
+      <c r="L139">
+        <v>100</v>
+      </c>
+      <c r="M139">
+        <v>5.35</v>
+      </c>
+      <c r="N139">
+        <v>88</v>
+      </c>
+      <c r="O139">
+        <v>5.45</v>
+      </c>
+      <c r="P139">
+        <v>90</v>
+      </c>
+      <c r="Q139">
+        <v>5.7</v>
+      </c>
+      <c r="R139">
+        <v>98</v>
+      </c>
+      <c r="S139">
+        <v>6.3</v>
+      </c>
+      <c r="T139">
+        <v>94</v>
+      </c>
+      <c r="U139">
+        <v>6.05</v>
+      </c>
+      <c r="W139">
+        <f>AVERAGE(B139,D139,F139,H139,J139,L139,N139,P139,R139,T139)</f>
+        <v>95</v>
+      </c>
+      <c r="X139">
+        <f>MIN(B139,D139,F139,H139,J139,L139,N139,P139,R139,T139)</f>
+        <v>88</v>
+      </c>
+      <c r="Y139">
+        <f>MAX(B139,D139,F139,H139,J139,L139,P139,N139,R139,T139)</f>
+        <v>100</v>
+      </c>
+      <c r="Z139">
+        <f>STDEV(B139,D139,F139,H139,J139,L139,N139,P139,R139,T139)/SQRT(COUNT(B139,D139,F139,H139,J139,L139,N139,P139,R139,T139))</f>
         <v>1.4063348739819324</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>23</v>
       </c>
-      <c r="B137">
+      <c r="B140">
         <v>90</v>
       </c>
-      <c r="C137">
+      <c r="C140">
         <v>5.55</v>
       </c>
-      <c r="D137">
-        <v>100</v>
-      </c>
-      <c r="E137">
+      <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="E140">
         <v>5.9</v>
       </c>
-      <c r="F137">
-        <v>100</v>
-      </c>
-      <c r="G137">
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="G140">
         <v>6.1</v>
       </c>
-      <c r="H137">
+      <c r="H140">
         <v>98</v>
       </c>
-      <c r="I137">
+      <c r="I140">
         <v>5.5</v>
       </c>
-      <c r="J137">
+      <c r="J140">
         <v>98</v>
       </c>
-      <c r="K137">
+      <c r="K140">
         <v>5.45</v>
       </c>
-      <c r="L137">
+      <c r="L140">
         <v>98</v>
       </c>
-      <c r="M137">
+      <c r="M140">
         <v>5.55</v>
       </c>
-      <c r="N137">
+      <c r="N140">
         <v>86</v>
       </c>
-      <c r="O137">
+      <c r="O140">
         <v>6</v>
       </c>
-      <c r="P137">
+      <c r="P140">
         <v>88</v>
       </c>
-      <c r="Q137">
+      <c r="Q140">
         <v>5.15</v>
       </c>
-      <c r="R137">
+      <c r="R140">
         <v>90</v>
       </c>
-      <c r="S137">
+      <c r="S140">
         <v>7.6</v>
       </c>
-      <c r="T137">
+      <c r="T140">
         <v>68</v>
       </c>
-      <c r="U137">
+      <c r="U140">
         <v>5.4</v>
       </c>
-      <c r="W137">
-        <f>AVERAGE(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)</f>
+      <c r="W140">
+        <f>AVERAGE(B140,D140,F140,H140,J140,L140,N140,P140,R140,T140)</f>
         <v>91.6</v>
       </c>
-      <c r="X137">
-        <f>MIN(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)</f>
+      <c r="X140">
+        <f>MIN(B140,D140,F140,H140,J140,L140,N140,P140,R140,T140)</f>
         <v>68</v>
       </c>
-      <c r="Y137">
-        <f>MAX(B137,D137,F137,H137,J137,L137,P137,N137,R137,T137)</f>
-        <v>100</v>
-      </c>
-      <c r="Z137">
-        <f>STDEV(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137)/SQRT(COUNT(B137,D137,F137,H137,J137,L137,N137,P137,R137,T137))</f>
+      <c r="Y140">
+        <f>MAX(B140,D140,F140,H140,J140,L140,P140,N140,R140,T140)</f>
+        <v>100</v>
+      </c>
+      <c r="Z140">
+        <f>STDEV(B140,D140,F140,H140,J140,L140,N140,P140,R140,T140)/SQRT(COUNT(B140,D140,F140,H140,J140,L140,N140,P140,R140,T140))</f>
         <v>3.1098410105841494</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>24</v>
       </c>
-      <c r="B138">
+      <c r="B141">
         <v>94</v>
       </c>
-      <c r="C138">
+      <c r="C141">
         <v>6.9</v>
       </c>
-      <c r="D138">
+      <c r="D141">
         <v>78</v>
       </c>
-      <c r="E138">
+      <c r="E141">
         <v>6.15</v>
       </c>
-      <c r="F138">
+      <c r="F141">
         <v>68</v>
       </c>
-      <c r="G138">
+      <c r="G141">
         <v>6.15</v>
       </c>
-      <c r="H138">
+      <c r="H141">
         <v>94</v>
       </c>
-      <c r="I138">
+      <c r="I141">
         <v>6.2</v>
       </c>
-      <c r="J138">
+      <c r="J141">
         <v>88</v>
       </c>
-      <c r="K138">
+      <c r="K141">
         <v>6.05</v>
       </c>
-      <c r="L138">
+      <c r="L141">
         <v>82</v>
       </c>
-      <c r="M138">
+      <c r="M141">
         <v>7.05</v>
       </c>
-      <c r="N138">
+      <c r="N141">
         <v>88</v>
       </c>
-      <c r="O138">
+      <c r="O141">
         <v>6.7</v>
       </c>
-      <c r="P138">
+      <c r="P141">
         <v>86</v>
       </c>
-      <c r="Q138">
+      <c r="Q141">
         <v>5.7</v>
       </c>
-      <c r="R138">
+      <c r="R141">
         <v>86</v>
       </c>
-      <c r="S138">
+      <c r="S141">
         <v>6.25</v>
       </c>
-      <c r="T138">
+      <c r="T141">
         <v>60</v>
       </c>
-      <c r="U138">
+      <c r="U141">
         <v>6.75</v>
       </c>
-      <c r="W138">
-        <f>AVERAGE(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)</f>
+      <c r="W141">
+        <f>AVERAGE(B141,D141,F141,H141,J141,L141,N141,P141,R141,T141)</f>
         <v>82.4</v>
       </c>
-      <c r="X138">
-        <f>MIN(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)</f>
+      <c r="X141">
+        <f>MIN(B141,D141,F141,H141,J141,L141,N141,P141,R141,T141)</f>
         <v>60</v>
       </c>
-      <c r="Y138">
-        <f>MAX(B138,D138,F138,H138,J138,L138,P138,N138,R138,T138)</f>
+      <c r="Y141">
+        <f>MAX(B141,D141,F141,H141,J141,L141,P141,N141,R141,T141)</f>
         <v>94</v>
       </c>
-      <c r="Z138">
-        <f>STDEV(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138)/SQRT(COUNT(B138,D138,F138,H138,J138,L138,N138,P138,R138,T138))</f>
+      <c r="Z141">
+        <f>STDEV(B141,D141,F141,H141,J141,L141,N141,P141,R141,T141)/SQRT(COUNT(B141,D141,F141,H141,J141,L141,N141,P141,R141,T141))</f>
         <v>3.4743504588787597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142">
+        <v>78</v>
+      </c>
+      <c r="C142">
+        <v>5.4</v>
+      </c>
+      <c r="D142">
+        <v>96</v>
+      </c>
+      <c r="E142">
+        <v>6.5</v>
+      </c>
+      <c r="F142">
+        <v>90</v>
+      </c>
+      <c r="G142">
+        <v>7.2</v>
+      </c>
+      <c r="H142">
+        <v>98</v>
+      </c>
+      <c r="I142">
+        <v>5.35</v>
+      </c>
+      <c r="J142">
+        <v>92</v>
+      </c>
+      <c r="K142">
+        <v>7.65</v>
+      </c>
+      <c r="L142">
+        <v>74</v>
+      </c>
+      <c r="M142">
+        <v>6.3</v>
+      </c>
+      <c r="N142">
+        <v>70</v>
+      </c>
+      <c r="O142">
+        <v>4.75</v>
+      </c>
+      <c r="P142">
+        <v>70</v>
+      </c>
+      <c r="Q142">
+        <v>6.35</v>
+      </c>
+      <c r="R142">
+        <v>92</v>
+      </c>
+      <c r="S142">
+        <v>6.3</v>
+      </c>
+      <c r="T142">
+        <v>90</v>
+      </c>
+      <c r="U142">
+        <v>4.55</v>
+      </c>
+      <c r="W142">
+        <f>AVERAGE(B142,D142,F142,H142,J142,L142,N142,P142,R142,T142)</f>
+        <v>85</v>
+      </c>
+      <c r="X142">
+        <f>MIN(B142,D142,F142,H142,J142,L142,N142,P142,R142,T142)</f>
+        <v>70</v>
+      </c>
+      <c r="Y142">
+        <f>MAX(B142,D142,F142,H142,J142,L142,P142,N142,R142,T142)</f>
+        <v>98</v>
+      </c>
+      <c r="Z142">
+        <f>STDEV(B142,D142,F142,H142,J142,L142,N142,P142,R142,T142)/SQRT(COUNT(B142,D142,F142,H142,J142,L142,N142,P142,R142,T142))</f>
+        <v>3.428637565499677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>92</v>
+      </c>
+      <c r="C145">
+        <v>5.65</v>
+      </c>
+      <c r="D145">
+        <v>88</v>
+      </c>
+      <c r="E145">
+        <v>5.55</v>
+      </c>
+      <c r="F145">
+        <v>96</v>
+      </c>
+      <c r="G145">
+        <v>5.8</v>
+      </c>
+      <c r="H145">
+        <v>86</v>
+      </c>
+      <c r="I145">
+        <v>5.6</v>
+      </c>
+      <c r="J145">
+        <v>98</v>
+      </c>
+      <c r="K145">
+        <v>6.75</v>
+      </c>
+      <c r="L145">
+        <v>90</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>90</v>
+      </c>
+      <c r="O145">
+        <v>5.95</v>
+      </c>
+      <c r="P145">
+        <v>56</v>
+      </c>
+      <c r="Q145">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R145">
+        <v>84</v>
+      </c>
+      <c r="S145">
+        <v>5.25</v>
+      </c>
+      <c r="T145">
+        <v>82</v>
+      </c>
+      <c r="U145">
+        <v>8.4</v>
+      </c>
+      <c r="W145">
+        <f>AVERAGE(B145,D145,F145,H145,J145,L145,N145,P145,R145,T145)</f>
+        <v>86.2</v>
+      </c>
+      <c r="X145">
+        <f>MIN(B145,D145,F145,H145,J145,L145,N145,P145,R145,T145)</f>
+        <v>56</v>
+      </c>
+      <c r="Y145">
+        <f>MAX(B145,D145,F145,H145,J145,L145,P145,N145,R145,T145)</f>
+        <v>98</v>
+      </c>
+      <c r="Z145">
+        <f>STDEV(B145,D145,F145,H145,J145,L145,N145,P145,R145,T145)/SQRT(COUNT(B145,D145,F145,H145,J145,L145,N145,P145,R145,T145))</f>
+        <v>3.7052515284240761</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146">
+        <v>74</v>
+      </c>
+      <c r="C146">
+        <v>4.75</v>
+      </c>
+      <c r="D146">
+        <v>90</v>
+      </c>
+      <c r="E146">
+        <v>6.1</v>
+      </c>
+      <c r="F146">
+        <v>82</v>
+      </c>
+      <c r="G146" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="H146">
+        <v>96</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>100</v>
+      </c>
+      <c r="K146">
+        <v>7.7</v>
+      </c>
+      <c r="L146">
+        <v>98</v>
+      </c>
+      <c r="M146">
+        <v>5.35</v>
+      </c>
+      <c r="N146">
+        <v>100</v>
+      </c>
+      <c r="O146">
+        <v>5.5</v>
+      </c>
+      <c r="P146">
+        <v>100</v>
+      </c>
+      <c r="Q146">
+        <v>6.25</v>
+      </c>
+      <c r="R146">
+        <v>94</v>
+      </c>
+      <c r="S146">
+        <v>7.3</v>
+      </c>
+      <c r="T146">
+        <v>94</v>
+      </c>
+      <c r="U146">
+        <v>5.85</v>
+      </c>
+      <c r="W146">
+        <f>AVERAGE(B146,D146,F146,H146,J146,L146,N146,P146,R146,T146)</f>
+        <v>92.8</v>
+      </c>
+      <c r="X146">
+        <f>MIN(B146,D146,F146,H146,J146,L146,N146,P146,R146,T146)</f>
+        <v>74</v>
+      </c>
+      <c r="Y146">
+        <f>MAX(B146,D146,F146,H146,J146,L146,P146,N146,R146,T146)</f>
+        <v>100</v>
+      </c>
+      <c r="Z146">
+        <f>STDEV(B146,D146,F146,H146,J146,L146,N146,P146,R146,T146)/SQRT(COUNT(B146,D146,F146,H146,J146,L146,N146,P146,R146,T146))</f>
+        <v>2.7357712704910924</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>74</v>
+      </c>
+      <c r="C147">
+        <v>6.05</v>
+      </c>
+      <c r="D147">
+        <v>90</v>
+      </c>
+      <c r="E147">
+        <v>6.5</v>
+      </c>
+      <c r="F147">
+        <v>90</v>
+      </c>
+      <c r="G147">
+        <v>6.95</v>
+      </c>
+      <c r="H147">
+        <v>90</v>
+      </c>
+      <c r="I147">
+        <v>5.7</v>
+      </c>
+      <c r="J147">
+        <v>84</v>
+      </c>
+      <c r="K147">
+        <v>5.4</v>
+      </c>
+      <c r="L147">
+        <v>80</v>
+      </c>
+      <c r="M147">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N147">
+        <v>82</v>
+      </c>
+      <c r="O147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>84</v>
+      </c>
+      <c r="Q147">
+        <v>6.74</v>
+      </c>
+      <c r="R147">
+        <v>82</v>
+      </c>
+      <c r="S147">
+        <v>7.25</v>
+      </c>
+      <c r="T147">
+        <v>86</v>
+      </c>
+      <c r="U147">
+        <v>5.95</v>
+      </c>
+      <c r="W147">
+        <f>AVERAGE(B147,D147,F147,H147,J147,L147,N147,P147,R147,T147)</f>
+        <v>84.2</v>
+      </c>
+      <c r="X147">
+        <f>MIN(B147,D147,F147,H147,J147,L147,N147,P147,R147,T147)</f>
+        <v>74</v>
+      </c>
+      <c r="Y147">
+        <f>MAX(B147,D147,F147,H147,J147,L147,P147,N147,R147,T147)</f>
+        <v>90</v>
+      </c>
+      <c r="Z147">
+        <f>STDEV(B147,D147,F147,H147,J147,L147,N147,P147,R147,T147)/SQRT(COUNT(B147,D147,F147,H147,J147,L147,N147,P147,R147,T147))</f>
+        <v>1.6179548132682124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148">
+        <v>62</v>
+      </c>
+      <c r="C148">
+        <v>4.5</v>
+      </c>
+      <c r="D148">
+        <v>96</v>
+      </c>
+      <c r="E148">
+        <v>6.35</v>
+      </c>
+      <c r="F148">
+        <v>86</v>
+      </c>
+      <c r="G148">
+        <v>5.7</v>
+      </c>
+      <c r="H148">
+        <v>88</v>
+      </c>
+      <c r="I148">
+        <v>7.45</v>
+      </c>
+      <c r="J148">
+        <v>82</v>
+      </c>
+      <c r="K148">
+        <v>5.45</v>
+      </c>
+      <c r="L148">
+        <v>88</v>
+      </c>
+      <c r="M148">
+        <v>5.35</v>
+      </c>
+      <c r="N148">
+        <v>86</v>
+      </c>
+      <c r="O148">
+        <v>7.5</v>
+      </c>
+      <c r="P148">
+        <v>86</v>
+      </c>
+      <c r="Q148">
+        <v>5.25</v>
+      </c>
+      <c r="R148">
+        <v>100</v>
+      </c>
+      <c r="S148">
+        <v>6.6</v>
+      </c>
+      <c r="T148">
+        <v>62</v>
+      </c>
+      <c r="U148">
+        <v>6.35</v>
+      </c>
+      <c r="W148">
+        <f>AVERAGE(B148,D148,F148,H148,J148,L148,N148,P148,R148,T148)</f>
+        <v>83.6</v>
+      </c>
+      <c r="X148">
+        <f>MIN(B148,D148,F148,H148,J148,L148,N148,P148,R148,T148)</f>
+        <v>62</v>
+      </c>
+      <c r="Y148">
+        <f>MAX(B148,D148,F148,H148,J148,L148,P148,N148,R148,T148)</f>
+        <v>100</v>
+      </c>
+      <c r="Z148">
+        <f>STDEV(B148,D148,F148,H148,J148,L148,N148,P148,R148,T148)/SQRT(COUNT(B148,D148,F148,H148,J148,L148,N148,P148,R148,T148))</f>
+        <v>3.9642849992849265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>5.65</v>
+      </c>
+      <c r="C151">
+        <v>82</v>
+      </c>
+      <c r="D151">
+        <v>78</v>
+      </c>
+      <c r="E151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F151">
+        <v>84</v>
+      </c>
+      <c r="G151">
+        <v>5.55</v>
+      </c>
+      <c r="H151">
+        <v>98</v>
+      </c>
+      <c r="I151">
+        <v>5.6</v>
+      </c>
+      <c r="J151">
+        <v>60</v>
+      </c>
+      <c r="K151">
+        <v>4.95</v>
+      </c>
+      <c r="L151">
+        <v>76</v>
+      </c>
+      <c r="M151">
+        <v>4.95</v>
+      </c>
+      <c r="N151">
+        <v>88</v>
+      </c>
+      <c r="O151">
+        <v>6.1</v>
+      </c>
+      <c r="P151">
+        <v>74</v>
+      </c>
+      <c r="Q151">
+        <v>5.65</v>
+      </c>
+      <c r="R151">
+        <v>90</v>
+      </c>
+      <c r="S151">
+        <v>5.4</v>
+      </c>
+      <c r="T151">
+        <v>90</v>
+      </c>
+      <c r="U151">
+        <v>5.6</v>
+      </c>
+      <c r="W151">
+        <f>AVERAGE(B151,D151,F151,H151,J151,L151,N151,P151,R151,T151)</f>
+        <v>74.364999999999995</v>
+      </c>
+      <c r="X151">
+        <f>MIN(B151,D151,F151,H151,J151,L151,N151,P151,R151,T151)</f>
+        <v>5.65</v>
+      </c>
+      <c r="Y151">
+        <f>MAX(B151,D151,F151,H151,J151,L151,P151,N151,R151,T151)</f>
+        <v>98</v>
+      </c>
+      <c r="Z151">
+        <f>STDEV(B151,D151,F151,H151,J151,L151,N151,P151,R151,T151)/SQRT(COUNT(B151,D151,F151,H151,J151,L151,N151,P151,R151,T151))</f>
+        <v>8.3469157643873313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152">
+        <v>5.65</v>
+      </c>
+      <c r="D152">
+        <v>96</v>
+      </c>
+      <c r="E152">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F152">
+        <v>96</v>
+      </c>
+      <c r="G152">
+        <v>7.5</v>
+      </c>
+      <c r="H152">
+        <v>98</v>
+      </c>
+      <c r="I152">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+      <c r="K152">
+        <v>4.45</v>
+      </c>
+      <c r="L152">
+        <v>100</v>
+      </c>
+      <c r="M152">
+        <v>4.95</v>
+      </c>
+      <c r="N152">
+        <v>100</v>
+      </c>
+      <c r="O152">
+        <v>4.75</v>
+      </c>
+      <c r="P152">
+        <v>100</v>
+      </c>
+      <c r="Q152">
+        <v>4.5</v>
+      </c>
+      <c r="R152">
+        <v>92</v>
+      </c>
+      <c r="S152">
+        <v>6.05</v>
+      </c>
+      <c r="T152">
+        <v>98</v>
+      </c>
+      <c r="U152">
+        <v>5.45</v>
+      </c>
+      <c r="W152">
+        <f>AVERAGE(B152,D152,F152,H152,J152,L152,N152,P152,R152,T152)</f>
+        <v>98</v>
+      </c>
+      <c r="X152">
+        <f>MIN(B152,D152,F152,H152,J152,L152,N152,P152,R152,T152)</f>
+        <v>92</v>
+      </c>
+      <c r="Y152">
+        <f>MAX(B152,D152,F152,H152,J152,L152,P152,N152,R152,T152)</f>
+        <v>100</v>
+      </c>
+      <c r="Z152">
+        <f>STDEV(B152,D152,F152,H152,J152,L152,N152,P152,R152,T152)/SQRT(COUNT(B152,D152,F152,H152,J152,L152,N152,P152,R152,T152))</f>
+        <v>0.8432740427115677</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153">
+        <v>84</v>
+      </c>
+      <c r="C153">
+        <v>5.45</v>
+      </c>
+      <c r="D153">
+        <v>60</v>
+      </c>
+      <c r="E153">
+        <v>5.35</v>
+      </c>
+      <c r="F153">
+        <v>76</v>
+      </c>
+      <c r="G153">
+        <v>5.5</v>
+      </c>
+      <c r="H153">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <v>6.05</v>
+      </c>
+      <c r="J153">
+        <v>86</v>
+      </c>
+      <c r="K153">
+        <v>5.45</v>
+      </c>
+      <c r="L153">
+        <v>78</v>
+      </c>
+      <c r="M153">
+        <v>5.55</v>
+      </c>
+      <c r="N153">
+        <v>86</v>
+      </c>
+      <c r="O153">
+        <v>6.75</v>
+      </c>
+      <c r="P153">
+        <v>66</v>
+      </c>
+      <c r="Q153">
+        <v>5.75</v>
+      </c>
+      <c r="R153">
+        <v>74</v>
+      </c>
+      <c r="S153">
+        <v>5.75</v>
+      </c>
+      <c r="T153">
+        <v>82</v>
+      </c>
+      <c r="U153">
+        <v>5.3</v>
+      </c>
+      <c r="W153">
+        <f>AVERAGE(B153,D153,F153,H153,J153,L153,N153,P153,R153,T153)</f>
+        <v>77.2</v>
+      </c>
+      <c r="X153">
+        <f>MIN(B153,D153,F153,H153,J153,L153,N153,P153,R153,T153)</f>
+        <v>60</v>
+      </c>
+      <c r="Y153">
+        <f>MAX(B153,D153,F153,H153,J153,L153,P153,N153,R153,T153)</f>
+        <v>86</v>
+      </c>
+      <c r="Z153">
+        <f>STDEV(B153,D153,F153,H153,J153,L153,N153,P153,R153,T153)/SQRT(COUNT(B153,D153,F153,H153,J153,L153,N153,P153,R153,T153))</f>
+        <v>2.7194770739161487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154">
+        <v>34</v>
+      </c>
+      <c r="C154">
+        <v>4.5</v>
+      </c>
+      <c r="D154">
+        <v>74</v>
+      </c>
+      <c r="E154">
+        <v>7.6</v>
+      </c>
+      <c r="F154">
+        <v>70</v>
+      </c>
+      <c r="G154">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="H154">
+        <v>54</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154">
+        <v>68</v>
+      </c>
+      <c r="K154">
+        <v>6.95</v>
+      </c>
+      <c r="L154">
+        <v>78</v>
+      </c>
+      <c r="M154">
+        <v>5.5</v>
+      </c>
+      <c r="N154">
+        <v>74</v>
+      </c>
+      <c r="O154">
+        <v>6</v>
+      </c>
+      <c r="P154">
+        <v>90</v>
+      </c>
+      <c r="Q154">
+        <v>5.8</v>
+      </c>
+      <c r="R154">
+        <v>62</v>
+      </c>
+      <c r="S154">
+        <v>6.05</v>
+      </c>
+      <c r="T154">
+        <v>80</v>
+      </c>
+      <c r="U154">
+        <v>7.7</v>
+      </c>
+      <c r="W154">
+        <f>AVERAGE(B154,D154,F154,H154,J154,L154,N154,P154,R154,T154)</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="X154">
+        <f>MIN(B154,D154,F154,H154,J154,L154,N154,P154,R154,T154)</f>
+        <v>34</v>
+      </c>
+      <c r="Y154">
+        <f>MAX(B154,D154,F154,H154,J154,L154,P154,N154,R154,T154)</f>
+        <v>90</v>
+      </c>
+      <c r="Z154">
+        <f>STDEV(B154,D154,F154,H154,J154,L154,N154,P154,R154,T154)/SQRT(COUNT(B154,D154,F154,H154,J154,L154,N154,P154,R154,T154))</f>
+        <v>4.9333333333333345</v>
       </c>
     </row>
   </sheetData>
